--- a/modelos/OBACON4426069/OBACON4426069_Sell in_metricas.xlsx
+++ b/modelos/OBACON4426069/OBACON4426069_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,79 +473,79 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
       <c r="B2" t="n">
-        <v>142.695416876439</v>
+        <v>120.0788690068476</v>
       </c>
       <c r="C2" t="n">
-        <v>72.69963888453051</v>
+        <v>47.25275434965845</v>
       </c>
       <c r="D2" t="n">
-        <v>211.6203824834379</v>
+        <v>185.2083985487214</v>
       </c>
       <c r="E2" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44848</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B3" t="n">
-        <v>152.1341944605959</v>
+        <v>144.2172597430676</v>
       </c>
       <c r="C3" t="n">
-        <v>80.29033142205162</v>
+        <v>75.16415469966819</v>
       </c>
       <c r="D3" t="n">
-        <v>225.6210557190228</v>
+        <v>212.1360090403923</v>
       </c>
       <c r="E3" t="n">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44855</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B4" t="n">
-        <v>139.6941549026727</v>
+        <v>151.4001344639748</v>
       </c>
       <c r="C4" t="n">
-        <v>72.11882546078029</v>
+        <v>88.94912784797623</v>
       </c>
       <c r="D4" t="n">
-        <v>210.4670018085339</v>
+        <v>221.6608317318503</v>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44862</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B5" t="n">
-        <v>119.0036287606211</v>
+        <v>139.1738412550414</v>
       </c>
       <c r="C5" t="n">
-        <v>47.81607514802819</v>
+        <v>70.69095561294839</v>
       </c>
       <c r="D5" t="n">
-        <v>189.8012904259246</v>
+        <v>213.2543185896938</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>44862</v>
@@ -553,96 +553,96 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B6" t="n">
-        <v>100.1768464982355</v>
+        <v>117.9225026444022</v>
       </c>
       <c r="C6" t="n">
-        <v>31.97666875714675</v>
+        <v>48.35273114210906</v>
       </c>
       <c r="D6" t="n">
-        <v>168.9604251085446</v>
+        <v>188.9864223992959</v>
       </c>
       <c r="E6" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44869</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B7" t="n">
-        <v>103.0644919818059</v>
+        <v>98.4505601248222</v>
       </c>
       <c r="C7" t="n">
-        <v>33.70409187967257</v>
+        <v>33.47098915390825</v>
       </c>
       <c r="D7" t="n">
-        <v>180.7560985440558</v>
+        <v>169.3855039793542</v>
       </c>
       <c r="E7" t="n">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44876</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B8" t="n">
-        <v>126.7352149999357</v>
+        <v>102.3780766888786</v>
       </c>
       <c r="C8" t="n">
-        <v>51.23277667665502</v>
+        <v>33.63421628680636</v>
       </c>
       <c r="D8" t="n">
-        <v>198.7422360938259</v>
+        <v>167.5048252713253</v>
       </c>
       <c r="E8" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44883</v>
+        <v>44876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B9" t="n">
-        <v>139.2839700813378</v>
+        <v>125.5329523699373</v>
       </c>
       <c r="C9" t="n">
-        <v>72.87164699972918</v>
+        <v>55.4758169500613</v>
       </c>
       <c r="D9" t="n">
-        <v>207.6775643031125</v>
+        <v>197.4158239393932</v>
       </c>
       <c r="E9" t="n">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44890</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="B10" t="n">
-        <v>122.9716084538387</v>
+        <v>140.0492419526763</v>
       </c>
       <c r="C10" t="n">
-        <v>57.47716690228267</v>
+        <v>76.21245172028854</v>
       </c>
       <c r="D10" t="n">
-        <v>191.9128430148673</v>
+        <v>205.6276451698461</v>
       </c>
       <c r="E10" t="n">
         <v>48</v>
@@ -653,139 +653,139 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B11" t="n">
-        <v>123.5014414619221</v>
+        <v>122.5539189271706</v>
       </c>
       <c r="C11" t="n">
-        <v>54.29839547289569</v>
+        <v>51.28752294706182</v>
       </c>
       <c r="D11" t="n">
-        <v>189.9900293233887</v>
+        <v>191.6794887740008</v>
       </c>
       <c r="E11" t="n">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44897</v>
+        <v>44890</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B12" t="n">
-        <v>138.6337560684916</v>
+        <v>122.5865221890017</v>
       </c>
       <c r="C12" t="n">
-        <v>74.78168926804855</v>
+        <v>52.36428229388706</v>
       </c>
       <c r="D12" t="n">
-        <v>206.6556678548963</v>
+        <v>191.8350534580036</v>
       </c>
       <c r="E12" t="n">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44904</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B13" t="n">
-        <v>123.0610773269876</v>
+        <v>137.9065626232474</v>
       </c>
       <c r="C13" t="n">
-        <v>58.74579334078939</v>
+        <v>72.00874012663931</v>
       </c>
       <c r="D13" t="n">
-        <v>185.7175420952195</v>
+        <v>200.7106001991817</v>
       </c>
       <c r="E13" t="n">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44911</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44925</v>
+        <v>44915</v>
       </c>
       <c r="B14" t="n">
-        <v>66.20128706632285</v>
+        <v>122.5172440494308</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.699654198430981</v>
+        <v>50.37923816224364</v>
       </c>
       <c r="D14" t="n">
-        <v>132.4169784458091</v>
+        <v>190.8988325394811</v>
       </c>
       <c r="E14" t="n">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44918</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44957</v>
+        <v>44925</v>
       </c>
       <c r="B15" t="n">
-        <v>202.2671247273252</v>
+        <v>65.19332967360702</v>
       </c>
       <c r="C15" t="n">
-        <v>133.7237160852535</v>
+        <v>-2.589562137354425</v>
       </c>
       <c r="D15" t="n">
-        <v>265.6707027092082</v>
+        <v>134.3443517994999</v>
       </c>
       <c r="E15" t="n">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44950</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B16" t="n">
-        <v>194.8062917936546</v>
+        <v>197.4710406578779</v>
       </c>
       <c r="C16" t="n">
-        <v>130.6302318072332</v>
+        <v>131.9817272627887</v>
       </c>
       <c r="D16" t="n">
-        <v>262.2525809742265</v>
+        <v>267.5554855406811</v>
       </c>
       <c r="E16" t="n">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B17" t="n">
-        <v>190.5624163839325</v>
+        <v>195.8737072471292</v>
       </c>
       <c r="C17" t="n">
-        <v>123.0666923052809</v>
+        <v>130.6376476910128</v>
       </c>
       <c r="D17" t="n">
-        <v>255.0144686148571</v>
+        <v>266.9223905612342</v>
       </c>
       <c r="E17" t="n">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>44957</v>
@@ -793,59 +793,59 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B18" t="n">
-        <v>116.7692214927678</v>
+        <v>193.3857238681762</v>
       </c>
       <c r="C18" t="n">
-        <v>41.10964117331134</v>
+        <v>128.6621447324527</v>
       </c>
       <c r="D18" t="n">
-        <v>184.0629211797462</v>
+        <v>261.0990515062052</v>
       </c>
       <c r="E18" t="n">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B19" t="n">
-        <v>98.7543421653907</v>
+        <v>117.384335844156</v>
       </c>
       <c r="C19" t="n">
-        <v>25.46000568718886</v>
+        <v>47.2057516036743</v>
       </c>
       <c r="D19" t="n">
-        <v>170.9807130563064</v>
+        <v>186.3446604148514</v>
       </c>
       <c r="E19" t="n">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B20" t="n">
-        <v>167.0526725543952</v>
+        <v>93.59679941341129</v>
       </c>
       <c r="C20" t="n">
-        <v>90.49475867424788</v>
+        <v>22.59068519954362</v>
       </c>
       <c r="D20" t="n">
-        <v>234.0062655354629</v>
+        <v>158.5530959283056</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>44978</v>
@@ -853,121 +853,141 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
       <c r="B21" t="n">
-        <v>205.3607435309898</v>
+        <v>163.0038882099951</v>
       </c>
       <c r="C21" t="n">
-        <v>131.6616452192821</v>
+        <v>95.60620848374259</v>
       </c>
       <c r="D21" t="n">
-        <v>277.4761264729852</v>
+        <v>233.7164811325185</v>
       </c>
       <c r="E21" t="n">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
       <c r="B22" t="n">
-        <v>172.5834223382371</v>
+        <v>208.7194830650692</v>
       </c>
       <c r="C22" t="n">
-        <v>103.1494350318047</v>
+        <v>137.2542451164825</v>
       </c>
       <c r="D22" t="n">
-        <v>247.2191331085959</v>
+        <v>281.1705064295559</v>
       </c>
       <c r="E22" t="n">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44999</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45027</v>
+        <v>45006</v>
       </c>
       <c r="B23" t="n">
-        <v>160.4532902842982</v>
+        <v>190.5568933913152</v>
       </c>
       <c r="C23" t="n">
-        <v>89.96703416521645</v>
+        <v>119.8656880401383</v>
       </c>
       <c r="D23" t="n">
-        <v>228.0769666762898</v>
+        <v>262.5867570474086</v>
       </c>
       <c r="E23" t="n">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45020</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45048</v>
+        <v>45027</v>
       </c>
       <c r="B24" t="n">
-        <v>195.8733437184906</v>
+        <v>163.3125701548792</v>
       </c>
       <c r="C24" t="n">
-        <v>120.4297804076928</v>
+        <v>92.33035631664994</v>
       </c>
       <c r="D24" t="n">
-        <v>271.0205160291741</v>
+        <v>234.8334450595376</v>
       </c>
       <c r="E24" t="n">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45041</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45058</v>
+        <v>45048</v>
       </c>
       <c r="B25" t="n">
-        <v>73.17619837646507</v>
+        <v>197.9657585469926</v>
       </c>
       <c r="C25" t="n">
-        <v>2.530984938948097</v>
+        <v>126.7304739226375</v>
       </c>
       <c r="D25" t="n">
-        <v>143.288367191875</v>
+        <v>266.7262398948059</v>
       </c>
       <c r="E25" t="n">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45055</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>45058</v>
+      </c>
+      <c r="B26" t="n">
+        <v>70.95100151392054</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.19760825817193</v>
+      </c>
+      <c r="D26" t="n">
+        <v>140.7751604019163</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B26" t="n">
-        <v>79.65382281922197</v>
-      </c>
-      <c r="C26" t="n">
-        <v>9.937002536458495</v>
-      </c>
-      <c r="D26" t="n">
-        <v>142.5093682516159</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="B27" t="n">
+        <v>77.77750674679237</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.553940708369796</v>
+      </c>
+      <c r="D27" t="n">
+        <v>152.3995788925761</v>
+      </c>
+      <c r="E27" t="n">
         <v>12</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F27" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1037,22 +1057,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>11881.0341078453</v>
+        <v>11993.11491448002</v>
       </c>
       <c r="C2" t="n">
-        <v>109.0001564578937</v>
+        <v>109.5130810199403</v>
       </c>
       <c r="D2" t="n">
-        <v>87.10808277328741</v>
+        <v>88.03218232941666</v>
       </c>
       <c r="E2" t="n">
-        <v>2.858006507004237</v>
+        <v>2.878771236540038</v>
       </c>
       <c r="F2" t="n">
-        <v>1.328235915044544</v>
+        <v>1.319564020917356</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8323820443322889</v>
+        <v>0.8422785417816385</v>
       </c>
       <c r="H2" t="n">
         <v>0.3333333333333334</v>
@@ -1063,25 +1083,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3022.419101679852</v>
+        <v>3493.745352992837</v>
       </c>
       <c r="C3" t="n">
-        <v>54.97653228132757</v>
+        <v>59.10791277817918</v>
       </c>
       <c r="D3" t="n">
-        <v>50.24536280199749</v>
+        <v>54.2186712367743</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5338419823896783</v>
+        <v>0.7198613929433946</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3138808807670996</v>
+        <v>0.319156204893243</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4146917486048278</v>
+        <v>0.4857668869287217</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7777777777777777</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1089,22 +1109,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4753.397141294274</v>
+        <v>4394.437503482666</v>
       </c>
       <c r="C4" t="n">
-        <v>68.9448848087679</v>
+        <v>66.29055365195457</v>
       </c>
       <c r="D4" t="n">
-        <v>57.95686693754658</v>
+        <v>56.16430384638539</v>
       </c>
       <c r="E4" t="n">
-        <v>1.443191664887459</v>
+        <v>1.410066139688421</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3151480511605632</v>
+        <v>0.2892938729785024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5694364241510876</v>
+        <v>0.5609956328081953</v>
       </c>
       <c r="H4" t="n">
         <v>0.6666666666666665</v>
